--- a/model/results/mix0_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_sec.xlsx
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.0184081632653062</v>
       </c>
       <c r="D27" t="n">
         <v>1.653053061224489</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897961</v>
       </c>
     </row>
     <row r="28">
@@ -2031,7 +2031,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897956</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777836</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>2.124690284293868e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999995</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -2646,19 +2646,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -2976,10 +2976,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.0184081632653062</v>
       </c>
       <c r="D27" t="n">
         <v>1.653053061224489</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897961</v>
       </c>
     </row>
     <row r="28">
@@ -3001,7 +3001,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0184081632653061</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897956</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -3490,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777778065</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.032553289247596e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999976</v>
       </c>
     </row>
     <row r="7">
@@ -3616,19 +3616,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -3946,19 +3946,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D27" t="n">
-        <v>1.653053061224489</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="28">
@@ -3971,7 +3971,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0184081632653061</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897956</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -4416,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777865</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.160476797887129e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999992</v>
       </c>
     </row>
     <row r="5">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.452777777777797</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>6.941534717630898e-14</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999983</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4589,16 +4589,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224489</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4086612244897955</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -4916,19 +4916,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D27" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="28">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897933</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777836</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>2.124690284293868e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999995</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111398</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.032553289247596e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666433</v>
       </c>
     </row>
     <row r="6">
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5578,19 +5578,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D13" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="14">
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D18" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="19">
@@ -5716,7 +5716,7 @@
         <v>0.01840816326530612</v>
       </c>
       <c r="D19" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5776,19 +5776,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D22" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="23">
@@ -5842,19 +5842,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530552</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D25" t="n">
-        <v>1.653053061224492</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4086612244897921</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="26">
@@ -5864,19 +5864,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D26" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="27">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D27" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="28">
@@ -5908,19 +5908,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6485,7 +6485,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D10" t="n">
         <v>1.65305306122449</v>
@@ -6507,7 +6507,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D11" t="n">
         <v>1.65305306122449</v>
@@ -6529,7 +6529,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D12" t="n">
         <v>1.65305306122449</v>
@@ -6548,19 +6548,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D13" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="14">
@@ -6573,16 +6573,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653053061224492</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4086612244897959</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="15">
@@ -6595,7 +6595,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D15" t="n">
         <v>1.65305306122449</v>
@@ -6617,7 +6617,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D16" t="n">
         <v>1.65305306122449</v>
@@ -6639,7 +6639,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D17" t="n">
         <v>1.65305306122449</v>
@@ -6661,7 +6661,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D18" t="n">
         <v>1.65305306122449</v>
@@ -6705,7 +6705,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D20" t="n">
         <v>1.65305306122449</v>
@@ -6727,7 +6727,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D21" t="n">
         <v>1.65305306122449</v>
@@ -6749,7 +6749,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D22" t="n">
         <v>1.65305306122449</v>
@@ -6768,19 +6768,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D23" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="24">
@@ -6793,7 +6793,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D24" t="n">
         <v>1.65305306122449</v>
@@ -6815,7 +6815,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D25" t="n">
         <v>1.65305306122449</v>
@@ -6837,7 +6837,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D26" t="n">
         <v>1.65305306122449</v>
@@ -6859,7 +6859,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D27" t="n">
         <v>1.65305306122449</v>
@@ -6881,7 +6881,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -6903,7 +6903,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D29" t="n">
         <v>1.65305306122449</v>
@@ -6925,7 +6925,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D30" t="n">
         <v>1.65305306122449</v>
@@ -6947,7 +6947,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D31" t="n">
         <v>1.65305306122449</v>
@@ -6969,7 +6969,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D32" t="n">
         <v>1.65305306122449</v>
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -7474,19 +7474,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D11" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="12">
@@ -7562,19 +7562,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D15" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="16">
@@ -7612,7 +7612,7 @@
         <v>0.01840816326530612</v>
       </c>
       <c r="D17" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7650,19 +7650,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D19" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="20">
@@ -7694,19 +7694,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D21" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="22">
@@ -7738,19 +7738,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D23" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="24">
@@ -7760,19 +7760,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D24" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="25">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530552</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D25" t="n">
-        <v>1.653053061224492</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4086612244897921</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="26">
@@ -7870,19 +7870,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D29" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897965</v>
       </c>
     </row>
     <row r="30">
@@ -7892,19 +7892,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01840816326530559</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D30" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897965</v>
       </c>
     </row>
     <row r="31">
@@ -7914,19 +7914,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D31" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="32">
@@ -7939,7 +7939,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D32" t="n">
         <v>1.65305306122449</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897965</v>
       </c>
     </row>
     <row r="33">
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777781</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -8422,19 +8422,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D10" t="n">
-        <v>1.653053061224489</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="11">
@@ -8444,19 +8444,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D11" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="12">
@@ -8466,19 +8466,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -8491,7 +8491,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D13" t="n">
         <v>1.65305306122449</v>
@@ -8510,19 +8510,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0184081632653055</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653053061224492</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.408661224489792</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="15">
@@ -8557,7 +8557,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D16" t="n">
         <v>1.65305306122449</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4086612244897955</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="17">
@@ -8576,19 +8576,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840816326530559</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D17" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="18">
@@ -8598,19 +8598,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530575</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D18" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4086612244897936</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="19">
@@ -8620,19 +8620,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D19" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="20">
@@ -8642,19 +8642,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D20" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="21">
@@ -8664,19 +8664,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D21" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="22">
@@ -8686,19 +8686,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530575</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D22" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4086612244897936</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="23">
@@ -8711,7 +8711,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D23" t="n">
         <v>1.65305306122449</v>
@@ -8730,19 +8730,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D24" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="25">
@@ -8755,7 +8755,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D25" t="n">
         <v>1.65305306122449</v>
@@ -8774,19 +8774,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530575</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D26" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4086612244897936</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="27">
@@ -8799,7 +8799,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D27" t="n">
         <v>1.65305306122449</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897965</v>
       </c>
     </row>
     <row r="28">
@@ -8821,7 +8821,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -8840,19 +8840,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D29" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="30">
@@ -8884,19 +8884,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D31" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="32">
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777839</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
-        <v>2.124690284293868e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999971</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -9392,19 +9392,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D10" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="11">
@@ -9414,19 +9414,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D11" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="12">
@@ -9436,19 +9436,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="13">
@@ -9458,19 +9458,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530523</v>
       </c>
       <c r="D13" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897905</v>
       </c>
     </row>
     <row r="14">
@@ -9480,19 +9480,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0184081632653055</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653053061224492</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.408661224489792</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="15">
@@ -9502,19 +9502,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D15" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="16">
@@ -9524,19 +9524,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D16" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="17">
@@ -9546,19 +9546,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840816326530559</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D17" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="18">
@@ -9568,19 +9568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D18" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="19">
@@ -9590,19 +9590,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530523</v>
       </c>
       <c r="D19" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897905</v>
       </c>
     </row>
     <row r="20">
@@ -9612,19 +9612,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D20" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="21">
@@ -9634,19 +9634,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D21" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="22">
@@ -9656,19 +9656,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D22" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="23">
@@ -9700,19 +9700,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D24" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="25">
@@ -9722,19 +9722,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="26">
@@ -9744,19 +9744,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D26" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="27">
@@ -9766,19 +9766,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D27" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -9813,7 +9813,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D29" t="n">
         <v>1.65305306122449</v>
@@ -9832,19 +9832,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01840816326530559</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D30" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4086612244897926</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="31">
@@ -9854,19 +9854,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D31" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="32">
@@ -9876,19 +9876,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D32" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="33">
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777781</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -10236,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10280,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -10362,19 +10362,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D10" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="11">
@@ -10384,19 +10384,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D11" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="12">
@@ -10406,19 +10406,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D12" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="13">
@@ -10428,19 +10428,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530523</v>
       </c>
       <c r="D13" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897905</v>
       </c>
     </row>
     <row r="14">
@@ -10450,19 +10450,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0184081632653055</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653053061224492</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.408661224489792</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="15">
@@ -10472,19 +10472,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D15" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="16">
@@ -10494,19 +10494,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D16" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="17">
@@ -10516,19 +10516,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D17" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4086612244897959</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="18">
@@ -10538,19 +10538,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D18" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="19">
@@ -10560,19 +10560,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530523</v>
       </c>
       <c r="D19" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897905</v>
       </c>
     </row>
     <row r="20">
@@ -10582,19 +10582,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D20" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="21">
@@ -10604,19 +10604,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D21" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="22">
@@ -10626,19 +10626,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D22" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="23">
@@ -10648,19 +10648,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D23" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="24">
@@ -10670,19 +10670,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D24" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="25">
@@ -10692,19 +10692,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="26">
@@ -10714,19 +10714,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D26" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="27">
@@ -10736,19 +10736,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D27" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -10758,19 +10758,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D28" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="29">
@@ -10780,19 +10780,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530509</v>
       </c>
       <c r="D29" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897899</v>
       </c>
     </row>
     <row r="30">
@@ -10802,19 +10802,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D30" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4086612244897959</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="31">
@@ -10824,19 +10824,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D31" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="32">
@@ -10846,19 +10846,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01840816326530558</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D32" t="n">
-        <v>1.653053061224491</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4086612244897925</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="33">
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -12132,13 +12132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -12154,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777839</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
-        <v>2.124690284293868e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999971</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -12176,13 +12176,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -12305,16 +12305,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D10" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="11">
@@ -12324,19 +12324,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D11" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="12">
@@ -12346,19 +12346,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D12" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="13">
@@ -12371,16 +12371,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D13" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="14">
@@ -12393,16 +12393,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D14" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="15">
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D15" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="16">
@@ -12437,16 +12437,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D16" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897963</v>
       </c>
     </row>
     <row r="17">
@@ -12459,16 +12459,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D17" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="18">
@@ -12481,16 +12481,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D18" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897963</v>
       </c>
     </row>
     <row r="19">
@@ -12503,16 +12503,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D19" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224492</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="20">
@@ -12525,16 +12525,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D20" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="21">
@@ -12544,19 +12544,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D21" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="22">
@@ -12569,16 +12569,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D22" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897963</v>
       </c>
     </row>
     <row r="23">
@@ -12591,16 +12591,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D23" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="24">
@@ -12610,19 +12610,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D24" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="25">
@@ -12635,16 +12635,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="26">
@@ -12657,16 +12657,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01840816326530615</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D26" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897963</v>
       </c>
     </row>
     <row r="27">
@@ -12676,19 +12676,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D27" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -12698,19 +12698,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D28" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="29">
@@ -12723,16 +12723,16 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D29" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897964</v>
       </c>
     </row>
     <row r="30">
@@ -12742,19 +12742,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D30" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="31">
@@ -12764,19 +12764,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D31" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="32">
@@ -12786,19 +12786,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.0184081632653051</v>
       </c>
       <c r="D32" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897898</v>
       </c>
     </row>
     <row r="33">
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -14135,16 +14135,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -15039,16 +15039,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333332</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.929589068322973</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3906118757763964</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5859178136645946</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -15127,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -16009,16 +16009,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -16075,16 +16075,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -16820,19 +16820,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -16864,19 +16864,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -16979,16 +16979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D3" t="n">
         <v>0.4527777777777777</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="4">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -17045,16 +17045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -17076,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -17790,19 +17790,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -17834,19 +17834,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -17949,16 +17949,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -18015,16 +18015,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D6" t="n">
         <v>0.4527777777777777</v>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -18166,19 +18166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -18210,19 +18210,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530534</v>
       </c>
       <c r="D14" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897914</v>
       </c>
     </row>
     <row r="15">
@@ -18342,19 +18342,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319726</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530534</v>
       </c>
       <c r="D20" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897914</v>
       </c>
     </row>
     <row r="21">
@@ -18408,19 +18408,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530534</v>
       </c>
       <c r="D23" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897914</v>
       </c>
     </row>
     <row r="24">
@@ -18496,10 +18496,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.01840816326530621</v>
       </c>
       <c r="D27" t="n">
         <v>1.653053061224489</v>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897961</v>
       </c>
     </row>
     <row r="28">
@@ -18521,7 +18521,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0184081632653061</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897956</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -18540,19 +18540,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.386748299319728</v>
+        <v>1.386748299319726</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01840816326530612</v>
+        <v>0.01840816326530534</v>
       </c>
       <c r="D29" t="n">
-        <v>1.65305306122449</v>
+        <v>1.653053061224493</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4086612244897957</v>
+        <v>0.4086612244897914</v>
       </c>
     </row>
     <row r="30">
@@ -18760,19 +18760,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -18804,19 +18804,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18985,16 +18985,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -19136,19 +19136,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.386748299319726</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01840816326530564</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.653053061224491</v>
+        <v>1.65305306122449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408661224489793</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="13">
@@ -19466,10 +19466,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.386748299319727</v>
+        <v>1.386748299319728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01840816326530608</v>
+        <v>0.0184081632653062</v>
       </c>
       <c r="D27" t="n">
         <v>1.653053061224489</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4086612244897954</v>
+        <v>0.4086612244897965</v>
       </c>
     </row>
     <row r="28">
@@ -19491,7 +19491,7 @@
         <v>1.386748299319728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0184081632653061</v>
+        <v>0.01840816326530612</v>
       </c>
       <c r="D28" t="n">
         <v>1.65305306122449</v>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4086612244897956</v>
+        <v>0.4086612244897957</v>
       </c>
     </row>
     <row r="29">
@@ -19730,19 +19730,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -19774,19 +19774,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
